--- a/input/Dash_LCOE_Configuration_v4.xlsx
+++ b/input/Dash_LCOE_Configuration_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406CE686-627D-4D25-82F0-EB4E495CE6D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B9D6A-69B4-4312-B952-F18DA30FBBCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
     <sheet name="Fuel_NH3" sheetId="3" r:id="rId3"/>
     <sheet name="Fuel_NG" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
   <si>
     <t>component</t>
   </si>
@@ -247,21 +247,12 @@
     <t>Fuel_NH3</t>
   </si>
   <si>
-    <t>cost_EUR_per_kW</t>
-  </si>
-  <si>
     <t>{"index":"cost_EUR_per_kW_min","type":"input_Fuel_NH3"}.value</t>
   </si>
   <si>
-    <t>cost_EUR_per_kW_min</t>
-  </si>
-  <si>
     <t>{"index":"cost_EUR_per_kW_max","type":"input_Fuel_NH3"}.value</t>
   </si>
   <si>
-    <t>cost_EUR_per_kW_max</t>
-  </si>
-  <si>
     <t>{"index":"costIncrease_percent_per_year","type":"input_Fuel_NH3"}.value</t>
   </si>
   <si>
@@ -359,6 +350,27 @@
   </si>
   <si>
     <t>Eur/USD, Jun2022</t>
+  </si>
+  <si>
+    <t>{"index":"size_kW","type":"input_HiPowAR"}.value</t>
+  </si>
+  <si>
+    <t>size_kW</t>
+  </si>
+  <si>
+    <t>{"index":"size_kW","type":"input_SOFC"}.value</t>
+  </si>
+  <si>
+    <t>{"index":"size_kW","type":"input_ICE"}.value</t>
+  </si>
+  <si>
+    <t>cost_Eur_per_kWh</t>
+  </si>
+  <si>
+    <t>cost_Eur_per_kWh_min</t>
+  </si>
+  <si>
+    <t>cost_Eur_per_kWh_max</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,6 +481,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,576 +812,627 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5">
-        <v>675</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E3" s="5">
-        <v>540</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E4" s="5">
-        <v>1080</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="5">
-        <v>45</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
-        <v>770.00000000000011</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5">
-        <v>700</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="E12" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
-        <v>2200</v>
+        <v>770.00000000000011</v>
       </c>
       <c r="E13" s="5">
-        <v>2000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5">
-        <v>110.00000000000001</v>
+        <v>550</v>
       </c>
       <c r="E14" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5">
-        <v>82.5</v>
+        <v>2200</v>
       </c>
       <c r="E15" s="5">
-        <v>75</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5">
-        <v>137.5</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="E16" s="5">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="5">
-        <v>50</v>
+        <v>82.5</v>
       </c>
       <c r="E17" s="5">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5">
-        <v>48</v>
+        <v>137.5</v>
       </c>
       <c r="E18" s="5">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D20" s="5">
-        <v>30000</v>
+        <v>48</v>
       </c>
       <c r="E20" s="5">
-        <v>30000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5">
-        <v>25000</v>
+        <v>52</v>
       </c>
       <c r="E21" s="5">
-        <v>25000</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="E22" s="5">
-        <v>40000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5">
-        <v>30</v>
+        <v>25000</v>
       </c>
       <c r="E23" s="5">
-        <v>30</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" s="5">
-        <v>25</v>
+        <v>40000</v>
       </c>
       <c r="E24" s="5">
-        <v>25</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E25" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5">
-        <v>1125</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
-        <v>900</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D27" s="5">
-        <v>1000</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5">
-        <v>800</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>46</v>
+      <c r="A28" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D28" s="5">
-        <v>1625</v>
+        <v>100</v>
       </c>
       <c r="E28" s="5">
-        <v>1300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D29" s="5">
-        <v>110</v>
+        <v>1125</v>
       </c>
       <c r="E29" s="5">
-        <v>90</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D30" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="5">
-        <v>80</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5">
-        <v>200</v>
+        <v>1625</v>
       </c>
       <c r="E31" s="5">
-        <v>160</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D32" s="5">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E32" s="5">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="5">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="E33" s="5">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5">
+        <v>200</v>
+      </c>
+      <c r="E34" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="5">
+        <v>40</v>
+      </c>
+      <c r="E35" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="5">
+        <v>37</v>
+      </c>
+      <c r="E36" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D37" s="5">
         <v>42</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E37" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>98</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1594,7 +1660,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1875,7 +1941,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1898,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1915,7 +1981,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D2" s="5">
         <v>0.16297262059973924</v>
@@ -1929,13 +1995,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5">
         <v>0.11408083441981746</v>
@@ -1949,13 +2015,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5">
         <v>0.22001303780964804</v>
@@ -1969,13 +2035,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -1989,13 +2055,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -2009,13 +2075,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -2029,10 +2095,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -2048,7 +2114,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -2064,7 +2130,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -2080,7 +2146,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -2091,7 +2157,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -2410,7 +2476,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,21 +2498,21 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D2" s="5">
         <v>9.4971605452992547E-3</v>
@@ -2457,82 +2523,94 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D3" s="5">
+        <f>D2*0.9</f>
+        <v>8.5474444907693292E-3</v>
+      </c>
       <c r="E3" s="5">
         <v>7.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="D4" s="5">
+        <f>D2*1.1</f>
+        <v>1.044687659982918E-2</v>
+      </c>
       <c r="E4" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2541,10 +2619,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C9" s="5">
         <v>11.6</v>
@@ -2554,10 +2632,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="5">
         <v>34.35</v>
@@ -2568,7 +2646,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" s="5">
         <v>10.066990178017212</v>
@@ -2578,7 +2656,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5">

--- a/input/Dash_LCOE_Configuration_v4.xlsx
+++ b/input/Dash_LCOE_Configuration_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\LCOEcalc\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159B9D6A-69B4-4312-B952-F18DA30FBBCD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867AF60-3642-4E1C-BC89-E268517CE970}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="1" r:id="rId1"/>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2475,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DF341-8C1A-4D19-88F8-FE2D2A0FBA8F}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
